--- a/___/table/technology-study-plan/Item/git仓库/参与开源作品.xlsx
+++ b/___/table/technology-study-plan/Item/git仓库/参与开源作品.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13640"/>
+    <workbookView windowWidth="30240" windowHeight="13640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="参与开源作品" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="DatePicker Component" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="12">
   <si>
     <t>冬寒难练，非搏可成。但若消极，必不可行。</t>
   </si>
@@ -33,21 +35,55 @@
   <si>
     <t>□</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://github.com/hug-sun/element3/issues/654
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">element3
+DatePicker Component
+</t>
+    </r>
+  </si>
+  <si>
+    <t>☑</t>
+  </si>
+  <si>
+    <t>梳理DatePicker Component思维导图</t>
+  </si>
+  <si>
+    <t>熟悉之前的代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 参考相关资料</t>
+  </si>
+  <si>
+    <t>编写DatePicker Component
+设计思路 思维导图</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="ddd"/>
+    <numFmt numFmtId="176" formatCode="ddd"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="mmm\ dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +176,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,23 +238,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,33 +268,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,23 +290,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,22 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,31 +348,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +390,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,61 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,61 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,24 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,6 +596,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -601,152 +644,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,7 +801,7 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -770,21 +813,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,15 +834,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,6 +866,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -913,6 +974,227 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>407467</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>829977</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164715</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name=" "/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="722630" y="307340"/>
+          <a:ext cx="5891530" cy="581025"/>
+          <a:chOff x="735420" y="454122"/>
+          <a:chExt cx="5131980" cy="869633"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name=" "/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1302786" y="454122"/>
+            <a:ext cx="4564614" cy="869633"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="90000" tIns="46800" rIns="90000" bIns="46800" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>参与开源作品计划任务管理表</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="333333"/>
+              </a:solidFill>
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3" descr=" "/>
+          <xdr:cNvPicPr/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="735420" y="567780"/>
+            <a:ext cx="540000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1393,7 +1675,7 @@
   <sheetPr/>
   <dimension ref="B1:BO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1545,11 +1827,11 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1619,9 +1901,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1910,7 +2192,7 @@
         <v>44875</v>
       </c>
       <c r="BN6" s="3"/>
-      <c r="BO6" s="22"/>
+      <c r="BO6" s="26"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="10.05" customHeight="1" spans="2:67">
       <c r="B7" s="2"/>
@@ -1978,7 +2260,7 @@
       <c r="BL7" s="4"/>
       <c r="BM7" s="4"/>
       <c r="BN7" s="4"/>
-      <c r="BO7" s="23"/>
+      <c r="BO7" s="27"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="7.05" customHeight="1" spans="2:67">
       <c r="B8" s="2"/>
@@ -2142,7 +2424,7 @@
         <v>44875</v>
       </c>
       <c r="BN8" s="6"/>
-      <c r="BO8" s="23"/>
+      <c r="BO8" s="27"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="2:67">
       <c r="B9" s="2"/>
@@ -2210,7 +2492,7 @@
       <c r="BL9" s="7"/>
       <c r="BM9" s="5"/>
       <c r="BN9" s="7"/>
-      <c r="BO9" s="23"/>
+      <c r="BO9" s="27"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="7.05" customHeight="1" spans="2:67">
       <c r="B10" s="2"/>
@@ -2278,7 +2560,7 @@
       <c r="BL10" s="6"/>
       <c r="BM10" s="5"/>
       <c r="BN10" s="6"/>
-      <c r="BO10" s="23"/>
+      <c r="BO10" s="27"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
       <c r="B11" s="2"/>
@@ -2574,7 +2856,7 @@
         <f>IFERROR(COUNTIFS(BM15:BM31,"☑")/COUNTA(BM15:BM31),"-")</f>
         <v>0</v>
       </c>
-      <c r="BO12" s="24"/>
+      <c r="BO12" s="28"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="10.05" customHeight="1" spans="2:67">
       <c r="B13" s="2"/>
@@ -2642,7 +2924,7 @@
       <c r="BL13" s="9"/>
       <c r="BM13" s="8"/>
       <c r="BN13" s="9"/>
-      <c r="BO13" s="24"/>
+      <c r="BO13" s="28"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
       <c r="B14" s="2"/>
@@ -2838,1298 +3120,1298 @@
       <c r="BN14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BO14" s="24"/>
+      <c r="BO14" s="28"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="54" customHeight="1" spans="2:67">
       <c r="B15" s="2"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="23" t="s">
         <v>5</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="10" t="s">
+      <c r="N15" s="22"/>
+      <c r="O15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="10" t="s">
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="10" t="s">
+      <c r="R15" s="22"/>
+      <c r="S15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="12"/>
-      <c r="U15" s="10" t="s">
+      <c r="T15" s="22"/>
+      <c r="U15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="10" t="s">
+      <c r="V15" s="22"/>
+      <c r="W15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="10" t="s">
+      <c r="X15" s="22"/>
+      <c r="Y15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="10" t="s">
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="10" t="s">
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="10" t="s">
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="10" t="s">
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="10" t="s">
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="10" t="s">
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="10" t="s">
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="10" t="s">
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="10" t="s">
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="10" t="s">
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="10" t="s">
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="10" t="s">
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="10" t="s">
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="10" t="s">
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BB15" s="12"/>
-      <c r="BC15" s="10" t="s">
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BD15" s="12"/>
-      <c r="BE15" s="10" t="s">
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BF15" s="12"/>
-      <c r="BG15" s="10" t="s">
+      <c r="BF15" s="22"/>
+      <c r="BG15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BH15" s="12"/>
-      <c r="BI15" s="10" t="s">
+      <c r="BH15" s="22"/>
+      <c r="BI15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BJ15" s="12"/>
-      <c r="BK15" s="10" t="s">
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BL15" s="12"/>
-      <c r="BM15" s="10" t="s">
+      <c r="BL15" s="22"/>
+      <c r="BM15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BN15" s="12"/>
-      <c r="BO15" s="10"/>
+      <c r="BN15" s="22"/>
+      <c r="BO15" s="23"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="58" customHeight="1" spans="2:67">
       <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="18"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="18"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="18"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="18"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="18"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="18"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="18"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="18"/>
-      <c r="BL16" s="12"/>
-      <c r="BM16" s="18"/>
-      <c r="BN16" s="12"/>
-      <c r="BO16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="24"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="24"/>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="24"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="24"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="24"/>
+      <c r="BJ16" s="22"/>
+      <c r="BK16" s="24"/>
+      <c r="BL16" s="22"/>
+      <c r="BM16" s="24"/>
+      <c r="BN16" s="22"/>
+      <c r="BO16" s="27"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="70" customHeight="1" spans="2:67">
       <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="18"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="18"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="18"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="18"/>
-      <c r="BF17" s="12"/>
-      <c r="BG17" s="18"/>
-      <c r="BH17" s="12"/>
-      <c r="BI17" s="18"/>
-      <c r="BJ17" s="12"/>
-      <c r="BK17" s="18"/>
-      <c r="BL17" s="12"/>
-      <c r="BM17" s="18"/>
-      <c r="BN17" s="12"/>
-      <c r="BO17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="24"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="22"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="22"/>
+      <c r="BO17" s="27"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="47" customHeight="1" spans="2:67">
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="10"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="12"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="12"/>
-      <c r="AW18" s="18"/>
-      <c r="AX18" s="12"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="12"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="12"/>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="12"/>
-      <c r="BE18" s="18"/>
-      <c r="BF18" s="12"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="12"/>
-      <c r="BI18" s="18"/>
-      <c r="BJ18" s="12"/>
-      <c r="BK18" s="18"/>
-      <c r="BL18" s="12"/>
-      <c r="BM18" s="18"/>
-      <c r="BN18" s="12"/>
-      <c r="BO18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="24"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="24"/>
+      <c r="BD18" s="22"/>
+      <c r="BE18" s="24"/>
+      <c r="BF18" s="22"/>
+      <c r="BG18" s="24"/>
+      <c r="BH18" s="22"/>
+      <c r="BI18" s="24"/>
+      <c r="BJ18" s="22"/>
+      <c r="BK18" s="24"/>
+      <c r="BL18" s="22"/>
+      <c r="BM18" s="24"/>
+      <c r="BN18" s="22"/>
+      <c r="BO18" s="27"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="54" customHeight="1" spans="2:67">
       <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="18"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="10"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="12"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="12"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="12"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="12"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="12"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="12"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="12"/>
-      <c r="BE19" s="14"/>
-      <c r="BF19" s="12"/>
-      <c r="BG19" s="14"/>
-      <c r="BH19" s="12"/>
-      <c r="BI19" s="14"/>
-      <c r="BJ19" s="12"/>
-      <c r="BK19" s="14"/>
-      <c r="BL19" s="12"/>
-      <c r="BM19" s="14"/>
-      <c r="BN19" s="12"/>
-      <c r="BO19" s="23"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="22"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="22"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="22"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="22"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="25"/>
+      <c r="BL19" s="22"/>
+      <c r="BM19" s="25"/>
+      <c r="BN19" s="22"/>
+      <c r="BO19" s="27"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="41" customHeight="1" spans="2:67">
       <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="10"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="12"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="12"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="12"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="12"/>
-      <c r="BG20" s="14"/>
-      <c r="BH20" s="12"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="12"/>
-      <c r="BK20" s="14"/>
-      <c r="BL20" s="12"/>
-      <c r="BM20" s="14"/>
-      <c r="BN20" s="12"/>
-      <c r="BO20" s="23"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="22"/>
+      <c r="BE20" s="25"/>
+      <c r="BF20" s="22"/>
+      <c r="BG20" s="25"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="25"/>
+      <c r="BL20" s="22"/>
+      <c r="BM20" s="25"/>
+      <c r="BN20" s="22"/>
+      <c r="BO20" s="27"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="52" customHeight="1" spans="2:67">
       <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="12"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="12"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="12"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="12"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="12"/>
-      <c r="BK21" s="14"/>
-      <c r="BL21" s="12"/>
-      <c r="BM21" s="14"/>
-      <c r="BN21" s="12"/>
-      <c r="BO21" s="23"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" s="22"/>
+      <c r="BM21" s="25"/>
+      <c r="BN21" s="22"/>
+      <c r="BO21" s="27"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="40" customHeight="1" spans="2:67">
       <c r="B22" s="2"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="14"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="14"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="14"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="14"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="14"/>
-      <c r="AZ22" s="12"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="12"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="12"/>
-      <c r="BE22" s="14"/>
-      <c r="BF22" s="12"/>
-      <c r="BG22" s="14"/>
-      <c r="BH22" s="12"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="12"/>
-      <c r="BK22" s="14"/>
-      <c r="BL22" s="12"/>
-      <c r="BM22" s="14"/>
-      <c r="BN22" s="12"/>
-      <c r="BO22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="25"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="22"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="22"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" s="22"/>
+      <c r="BM22" s="25"/>
+      <c r="BN22" s="22"/>
+      <c r="BO22" s="27"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="47" customHeight="1" spans="2:67">
       <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="18"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="18"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="18"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="18"/>
-      <c r="BB23" s="12"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="12"/>
-      <c r="BE23" s="18"/>
-      <c r="BF23" s="12"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="12"/>
-      <c r="BI23" s="18"/>
-      <c r="BJ23" s="12"/>
-      <c r="BK23" s="18"/>
-      <c r="BL23" s="12"/>
-      <c r="BM23" s="18"/>
-      <c r="BN23" s="12"/>
-      <c r="BO23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="24"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="24"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="24"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="24"/>
+      <c r="BJ23" s="22"/>
+      <c r="BK23" s="24"/>
+      <c r="BL23" s="22"/>
+      <c r="BM23" s="24"/>
+      <c r="BN23" s="22"/>
+      <c r="BO23" s="27"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="55" customHeight="1" spans="2:67">
       <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="12"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="12"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="12"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="12"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="12"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="12"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="12"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="12"/>
-      <c r="BI24" s="14"/>
-      <c r="BJ24" s="12"/>
-      <c r="BK24" s="14"/>
-      <c r="BL24" s="12"/>
-      <c r="BM24" s="14"/>
-      <c r="BN24" s="12"/>
-      <c r="BO24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="22"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="22"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="22"/>
+      <c r="BM24" s="25"/>
+      <c r="BN24" s="22"/>
+      <c r="BO24" s="27"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
       <c r="B25" s="2"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="12"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="12"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="12"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="12"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="12"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="12"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="12"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="12"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="12"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="12"/>
-      <c r="BK25" s="14"/>
-      <c r="BL25" s="12"/>
-      <c r="BM25" s="14"/>
-      <c r="BN25" s="12"/>
-      <c r="BO25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="25"/>
+      <c r="BF25" s="22"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="22"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="22"/>
+      <c r="BO25" s="27"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
       <c r="B26" s="2"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="12"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="12"/>
-      <c r="BC26" s="14"/>
-      <c r="BD26" s="12"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="12"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="12"/>
-      <c r="BI26" s="14"/>
-      <c r="BJ26" s="12"/>
-      <c r="BK26" s="14"/>
-      <c r="BL26" s="12"/>
-      <c r="BM26" s="14"/>
-      <c r="BN26" s="12"/>
-      <c r="BO26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="22"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="22"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="22"/>
+      <c r="BE26" s="25"/>
+      <c r="BF26" s="22"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="22"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="22"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="22"/>
+      <c r="BM26" s="25"/>
+      <c r="BN26" s="22"/>
+      <c r="BO26" s="27"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
       <c r="B27" s="2"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="12"/>
-      <c r="BC27" s="14"/>
-      <c r="BD27" s="12"/>
-      <c r="BE27" s="14"/>
-      <c r="BF27" s="12"/>
-      <c r="BG27" s="14"/>
-      <c r="BH27" s="12"/>
-      <c r="BI27" s="14"/>
-      <c r="BJ27" s="12"/>
-      <c r="BK27" s="14"/>
-      <c r="BL27" s="12"/>
-      <c r="BM27" s="14"/>
-      <c r="BN27" s="12"/>
-      <c r="BO27" s="23"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="25"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="25"/>
+      <c r="BB27" s="22"/>
+      <c r="BC27" s="25"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="25"/>
+      <c r="BF27" s="22"/>
+      <c r="BG27" s="25"/>
+      <c r="BH27" s="22"/>
+      <c r="BI27" s="25"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="25"/>
+      <c r="BL27" s="22"/>
+      <c r="BM27" s="25"/>
+      <c r="BN27" s="22"/>
+      <c r="BO27" s="27"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
       <c r="B28" s="2"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="14"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="14"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="14"/>
-      <c r="AZ28" s="12"/>
-      <c r="BA28" s="14"/>
-      <c r="BB28" s="12"/>
-      <c r="BC28" s="14"/>
-      <c r="BD28" s="12"/>
-      <c r="BE28" s="14"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="14"/>
-      <c r="BH28" s="12"/>
-      <c r="BI28" s="14"/>
-      <c r="BJ28" s="12"/>
-      <c r="BK28" s="14"/>
-      <c r="BL28" s="12"/>
-      <c r="BM28" s="14"/>
-      <c r="BN28" s="12"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="22"/>
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="22"/>
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="22"/>
       <c r="BO28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
       <c r="B29" s="2"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="14"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="14"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="14"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="14"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="14"/>
-      <c r="BH29" s="12"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="12"/>
-      <c r="BK29" s="14"/>
-      <c r="BL29" s="12"/>
-      <c r="BM29" s="14"/>
-      <c r="BN29" s="12"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="25"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="25"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="25"/>
+      <c r="BN29" s="22"/>
       <c r="BO29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
       <c r="B30" s="2"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="12"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="12"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="12"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="12"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="12"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="12"/>
-      <c r="BC30" s="14"/>
-      <c r="BD30" s="12"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="12"/>
-      <c r="BG30" s="14"/>
-      <c r="BH30" s="12"/>
-      <c r="BI30" s="14"/>
-      <c r="BJ30" s="12"/>
-      <c r="BK30" s="14"/>
-      <c r="BL30" s="12"/>
-      <c r="BM30" s="14"/>
-      <c r="BN30" s="12"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="22"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="22"/>
+      <c r="BG30" s="25"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="25"/>
+      <c r="BJ30" s="22"/>
+      <c r="BK30" s="25"/>
+      <c r="BL30" s="22"/>
+      <c r="BM30" s="25"/>
+      <c r="BN30" s="22"/>
       <c r="BO30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
       <c r="B31" s="2"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="12"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="12"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="12"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="12"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="12"/>
-      <c r="AY31" s="14"/>
-      <c r="AZ31" s="12"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="12"/>
-      <c r="BC31" s="14"/>
-      <c r="BD31" s="12"/>
-      <c r="BE31" s="14"/>
-      <c r="BF31" s="12"/>
-      <c r="BG31" s="14"/>
-      <c r="BH31" s="12"/>
-      <c r="BI31" s="14"/>
-      <c r="BJ31" s="12"/>
-      <c r="BK31" s="14"/>
-      <c r="BL31" s="12"/>
-      <c r="BM31" s="14"/>
-      <c r="BN31" s="12"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="22"/>
+      <c r="BE31" s="25"/>
+      <c r="BF31" s="22"/>
+      <c r="BG31" s="25"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="25"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="25"/>
+      <c r="BL31" s="22"/>
+      <c r="BM31" s="25"/>
+      <c r="BN31" s="22"/>
       <c r="BO31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="15"/>
-      <c r="AM32" s="15"/>
-      <c r="AN32" s="15"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="15"/>
-      <c r="AR32" s="15"/>
-      <c r="AS32" s="15"/>
-      <c r="AT32" s="15"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="15"/>
-      <c r="AW32" s="15"/>
-      <c r="AX32" s="15"/>
-      <c r="AY32" s="15"/>
-      <c r="AZ32" s="15"/>
-      <c r="BA32" s="15"/>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="15"/>
-      <c r="BD32" s="15"/>
-      <c r="BE32" s="15"/>
-      <c r="BF32" s="15"/>
-      <c r="BG32" s="15"/>
-      <c r="BH32" s="15"/>
-      <c r="BI32" s="15"/>
-      <c r="BJ32" s="15"/>
-      <c r="BK32" s="15"/>
-      <c r="BL32" s="15"/>
-      <c r="BM32" s="15"/>
-      <c r="BN32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="19"/>
+      <c r="BF32" s="19"/>
+      <c r="BG32" s="19"/>
+      <c r="BH32" s="19"/>
+      <c r="BI32" s="19"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="19"/>
+      <c r="BL32" s="19"/>
+      <c r="BM32" s="19"/>
+      <c r="BN32" s="19"/>
       <c r="BO32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="12:12">
-      <c r="L33" s="15"/>
+      <c r="L33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -4224,7 +4506,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa1547d8-3cfa-4863-99dd-aa94982dae29}</x14:id>
+          <x14:id>{63cd0589-d753-4a82-8280-86b2318df8a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4236,7 +4518,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{108d6603-f699-4d6f-b7b1-081a67c7a234}</x14:id>
+          <x14:id>{9d534fa5-a750-44ba-9d34-4bdfaf37e16e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4253,7 +4535,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa1547d8-3cfa-4863-99dd-aa94982dae29}">
+          <x14:cfRule type="dataBar" id="{63cd0589-d753-4a82-8280-86b2318df8a7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4264,7 +4546,2974 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{108d6603-f699-4d6f-b7b1-081a67c7a234}">
+          <x14:cfRule type="dataBar" id="{9d534fa5-a750-44ba-9d34-4bdfaf37e16e}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D13 F12:F13 H12:H13 J12:J13 L12:L13 N12:N13 P12:P13 R12:R13 T12:T13 V12:V13 X12:X13 Z12:Z13 AB12:AB13 AD12:AD13 AF12:AF13 AH12:AH13 AJ12:AJ13 AL12:AL13 AN12:AN13 AP12:AP13 AR12:AR13 AT12:AT13 AV12:AV13 AX12:AX13 AZ12:AZ13 BB12:BB13 BD12:BD13 BF12:BF13 BH12:BH13 BJ12:BJ13 BL12:BL13 BN12:BN13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S68" sqref="S68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1" s="29" customFormat="1" spans="1:1">
+      <c r="A1" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="29" customFormat="1"/>
+    <row r="3" s="29" customFormat="1"/>
+    <row r="4" s="29" customFormat="1"/>
+    <row r="5" s="29" customFormat="1"/>
+    <row r="6" s="29" customFormat="1"/>
+    <row r="7" s="29" customFormat="1"/>
+    <row r="11" s="29" customFormat="1"/>
+    <row r="12" s="29" customFormat="1"/>
+    <row r="13" s="29" customFormat="1"/>
+    <row r="14" s="29" customFormat="1"/>
+    <row r="15" s="29" customFormat="1"/>
+    <row r="16" s="29" customFormat="1"/>
+    <row r="17" s="29" customFormat="1"/>
+    <row r="21" s="29" customFormat="1"/>
+    <row r="22" s="29" customFormat="1"/>
+    <row r="23" s="29" customFormat="1"/>
+    <row r="24" s="29" customFormat="1"/>
+    <row r="25" s="29" customFormat="1"/>
+    <row r="26" s="29" customFormat="1"/>
+    <row r="27" s="29" customFormat="1"/>
+    <row r="31" s="29" customFormat="1"/>
+    <row r="32" s="29" customFormat="1"/>
+    <row r="33" s="29" customFormat="1"/>
+    <row r="34" s="29" customFormat="1"/>
+    <row r="35" s="29" customFormat="1"/>
+    <row r="36" s="29" customFormat="1"/>
+    <row r="37" s="29" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:XFD7"/>
+    <mergeCell ref="A11:XFD17"/>
+    <mergeCell ref="A21:XFD27"/>
+    <mergeCell ref="A31:XFD37"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://github.com/hug-sun/element3/issues/654&#10;&#10;element3&#10;DatePicker Component&#10;" tooltip="https://github.com/hug-sun/element3/issues/654"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:BO33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" width="4.77884615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77884615384615" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.9615384615385" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.4423076923077" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5673076923077" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6923076923077" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="29" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="24.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="5.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="22.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="25.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="29.375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="5.875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9.875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="5.875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="9.875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5.875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.875" style="1" customWidth="1"/>
+    <col min="43" max="43" width="5.875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9.875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="5.875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="9.875" style="1" customWidth="1"/>
+    <col min="47" max="47" width="5.875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="9.875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="5.875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="9.875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="5.875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="9.875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="5.875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="9.875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="5.875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="9.875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="5.875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="9.875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="5.875" style="1" customWidth="1"/>
+    <col min="60" max="60" width="9.875" style="1" customWidth="1"/>
+    <col min="61" max="61" width="5.875" style="1" customWidth="1"/>
+    <col min="62" max="62" width="9.875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="5.875" style="1" customWidth="1"/>
+    <col min="64" max="64" width="9.875" style="1" customWidth="1"/>
+    <col min="65" max="65" width="5.875" style="1" customWidth="1"/>
+    <col min="66" max="66" width="9.875" style="1" customWidth="1"/>
+    <col min="67" max="67" width="10.25" style="1" customWidth="1"/>
+    <col min="68" max="16384" width="16.7788461538462" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="21">
+        <v>44870</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="25.05" customHeight="1" spans="2:67">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <f>$O$3</f>
+        <v>44870</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:I6" si="0">C6+1</f>
+        <v>44871</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>44872</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>44873</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:O6" si="1">I6+1</f>
+        <v>44874</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>44875</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>44876</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6:U6" si="2">O6+1</f>
+        <v>44877</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
+        <f t="shared" si="2"/>
+        <v>44878</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3">
+        <f t="shared" si="2"/>
+        <v>44879</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3">
+        <f t="shared" ref="W6:AA6" si="3">U6+1</f>
+        <v>44880</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3">
+        <f t="shared" si="3"/>
+        <v>44881</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3">
+        <f t="shared" si="3"/>
+        <v>44882</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3">
+        <f t="shared" ref="AC6:AG6" si="4">AA6+1</f>
+        <v>44883</v>
+      </c>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3">
+        <f t="shared" si="4"/>
+        <v>44884</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3">
+        <f t="shared" si="4"/>
+        <v>44885</v>
+      </c>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3">
+        <f t="shared" ref="AI6:AM6" si="5">AG6+1</f>
+        <v>44886</v>
+      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3">
+        <f t="shared" si="5"/>
+        <v>44887</v>
+      </c>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3">
+        <f t="shared" si="5"/>
+        <v>44888</v>
+      </c>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3">
+        <f t="shared" ref="AO6:AS6" si="6">AM6+1</f>
+        <v>44889</v>
+      </c>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3">
+        <f t="shared" si="6"/>
+        <v>44890</v>
+      </c>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3">
+        <f t="shared" si="6"/>
+        <v>44891</v>
+      </c>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3">
+        <f t="shared" ref="AU6:AY6" si="7">AS6+1</f>
+        <v>44892</v>
+      </c>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3">
+        <f t="shared" si="7"/>
+        <v>44893</v>
+      </c>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3">
+        <f t="shared" si="7"/>
+        <v>44894</v>
+      </c>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3">
+        <f t="shared" ref="BA6:BE6" si="8">AY6+1</f>
+        <v>44895</v>
+      </c>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3">
+        <f t="shared" si="8"/>
+        <v>44896</v>
+      </c>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3">
+        <f t="shared" si="8"/>
+        <v>44897</v>
+      </c>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3">
+        <f t="shared" ref="BG6:BK6" si="9">BE6+1</f>
+        <v>44898</v>
+      </c>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3">
+        <f t="shared" si="9"/>
+        <v>44899</v>
+      </c>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3">
+        <f t="shared" si="9"/>
+        <v>44900</v>
+      </c>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3">
+        <f>BK6+1</f>
+        <v>44901</v>
+      </c>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="26"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="10.05" customHeight="1" spans="2:67">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="27"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="7.05" customHeight="1" spans="2:67">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:G8" si="10">C6</f>
+        <v>44870</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5">
+        <f t="shared" si="10"/>
+        <v>44871</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5">
+        <f t="shared" si="10"/>
+        <v>44872</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:M8" si="11">I6</f>
+        <v>44873</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5">
+        <f t="shared" si="11"/>
+        <v>44874</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5">
+        <f t="shared" si="11"/>
+        <v>44875</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5">
+        <f t="shared" ref="O8:S8" si="12">O6</f>
+        <v>44876</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="5">
+        <f t="shared" si="12"/>
+        <v>44877</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="5">
+        <f t="shared" si="12"/>
+        <v>44878</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="5">
+        <f t="shared" ref="U8:Y8" si="13">U6</f>
+        <v>44879</v>
+      </c>
+      <c r="V8" s="6"/>
+      <c r="W8" s="5">
+        <f t="shared" si="13"/>
+        <v>44880</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="5">
+        <f t="shared" si="13"/>
+        <v>44881</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="5">
+        <f t="shared" ref="AA8:AE8" si="14">AA6</f>
+        <v>44882</v>
+      </c>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="5">
+        <f t="shared" si="14"/>
+        <v>44883</v>
+      </c>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="5">
+        <f t="shared" si="14"/>
+        <v>44884</v>
+      </c>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="5">
+        <f t="shared" ref="AG8:AK8" si="15">AG6</f>
+        <v>44885</v>
+      </c>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="5">
+        <f t="shared" si="15"/>
+        <v>44886</v>
+      </c>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="5">
+        <f t="shared" si="15"/>
+        <v>44887</v>
+      </c>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="5">
+        <f t="shared" ref="AM8:AQ8" si="16">AM6</f>
+        <v>44888</v>
+      </c>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="5">
+        <f t="shared" si="16"/>
+        <v>44889</v>
+      </c>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="5">
+        <f t="shared" si="16"/>
+        <v>44890</v>
+      </c>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="5">
+        <f t="shared" ref="AS8:AW8" si="17">AS6</f>
+        <v>44891</v>
+      </c>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="5">
+        <f t="shared" si="17"/>
+        <v>44892</v>
+      </c>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="5">
+        <f t="shared" si="17"/>
+        <v>44893</v>
+      </c>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="5">
+        <f t="shared" ref="AY8:BC8" si="18">AY6</f>
+        <v>44894</v>
+      </c>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="5">
+        <f t="shared" si="18"/>
+        <v>44895</v>
+      </c>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="5">
+        <f t="shared" si="18"/>
+        <v>44896</v>
+      </c>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="5">
+        <f t="shared" ref="BE8:BI8" si="19">BE6</f>
+        <v>44897</v>
+      </c>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="5">
+        <f t="shared" si="19"/>
+        <v>44898</v>
+      </c>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="5">
+        <f t="shared" si="19"/>
+        <v>44899</v>
+      </c>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="5">
+        <f>BK6</f>
+        <v>44900</v>
+      </c>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="5">
+        <f>BM6</f>
+        <v>44901</v>
+      </c>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="27"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="2:67">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="27"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="7.05" customHeight="1" spans="2:67">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="27"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
+      <c r="B12" s="2"/>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" ref="D12:H12" si="20">IFERROR(COUNTIFS(C15:C31,"☑")/COUNTA(C15:C31),"-")</f>
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" ref="J12:N12" si="21">IFERROR(COUNTIFS(I15:I31,"☑")/COUNTA(I15:I31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" ref="P12:T12" si="22">IFERROR(COUNTIFS(O15:O31,"☑")/COUNTA(O15:O31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" ref="V12:Z12" si="23">IFERROR(COUNTIFS(U15:U31,"☑")/COUNTA(U15:U31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" ref="AB12:AF12" si="24">IFERROR(COUNTIFS(AA15:AA31,"☑")/COUNTA(AA15:AA31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="9">
+        <f t="shared" ref="AH12:AL12" si="25">IFERROR(COUNTIFS(AG15:AG31,"☑")/COUNTA(AG15:AG31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="9">
+        <f t="shared" ref="AN12:AR12" si="26">IFERROR(COUNTIFS(AM15:AM31,"☑")/COUNTA(AM15:AM31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="9">
+        <f t="shared" ref="AT12:AX12" si="27">IFERROR(COUNTIFS(AS15:AS31,"☑")/COUNTA(AS15:AS31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV12" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX12" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="9">
+        <f t="shared" ref="AZ12:BD12" si="28">IFERROR(COUNTIFS(AY15:AY31,"☑")/COUNTA(AY15:AY31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB12" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD12" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF12" s="9">
+        <f t="shared" ref="BF12:BJ12" si="29">IFERROR(COUNTIFS(BE15:BE31,"☑")/COUNTA(BE15:BE31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="BG12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH12" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ12" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BK12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL12" s="9">
+        <f>IFERROR(COUNTIFS(BK15:BK31,"☑")/COUNTA(BK15:BK31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="BM12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN12" s="9">
+        <f>IFERROR(COUNTIFS(BM15:BM31,"☑")/COUNTA(BM15:BM31),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="BO12" s="28"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="10.05" customHeight="1" spans="2:67">
+      <c r="B13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="28"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:67">
+      <c r="B14" s="2"/>
+      <c r="C14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO14" s="28"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="66" customHeight="1" spans="2:67">
+      <c r="B15" s="2"/>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="11"/>
+      <c r="U15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="11"/>
+      <c r="W15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF15" s="22"/>
+      <c r="BG15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH15" s="22"/>
+      <c r="BI15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL15" s="22"/>
+      <c r="BM15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN15" s="22"/>
+      <c r="BO15" s="23"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="68" customHeight="1" spans="2:67">
+      <c r="B16" s="2"/>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="24"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="24"/>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="24"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="24"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="24"/>
+      <c r="BJ16" s="22"/>
+      <c r="BK16" s="24"/>
+      <c r="BL16" s="22"/>
+      <c r="BM16" s="24"/>
+      <c r="BN16" s="22"/>
+      <c r="BO16" s="27"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="70" customHeight="1" spans="2:67">
+      <c r="B17" s="2"/>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="24"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="22"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="22"/>
+      <c r="BO17" s="27"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="65" customHeight="1" spans="2:67">
+      <c r="B18" s="2"/>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="24"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="24"/>
+      <c r="BD18" s="22"/>
+      <c r="BE18" s="24"/>
+      <c r="BF18" s="22"/>
+      <c r="BG18" s="24"/>
+      <c r="BH18" s="22"/>
+      <c r="BI18" s="24"/>
+      <c r="BJ18" s="22"/>
+      <c r="BK18" s="24"/>
+      <c r="BL18" s="22"/>
+      <c r="BM18" s="24"/>
+      <c r="BN18" s="22"/>
+      <c r="BO18" s="27"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="70" customHeight="1" spans="2:67">
+      <c r="B19" s="2"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="22"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="22"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="22"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="22"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="25"/>
+      <c r="BL19" s="22"/>
+      <c r="BM19" s="25"/>
+      <c r="BN19" s="22"/>
+      <c r="BO19" s="27"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="81" customHeight="1" spans="2:67">
+      <c r="B20" s="2"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="22"/>
+      <c r="BE20" s="25"/>
+      <c r="BF20" s="22"/>
+      <c r="BG20" s="25"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="25"/>
+      <c r="BL20" s="22"/>
+      <c r="BM20" s="25"/>
+      <c r="BN20" s="22"/>
+      <c r="BO20" s="27"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="72" customHeight="1" spans="2:67">
+      <c r="B21" s="2"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" s="22"/>
+      <c r="BM21" s="25"/>
+      <c r="BN21" s="22"/>
+      <c r="BO21" s="27"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="69" customHeight="1" spans="2:67">
+      <c r="B22" s="2"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="25"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="22"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="22"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" s="22"/>
+      <c r="BM22" s="25"/>
+      <c r="BN22" s="22"/>
+      <c r="BO22" s="27"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="75" customHeight="1" spans="2:67">
+      <c r="B23" s="2"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="24"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="24"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="24"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="24"/>
+      <c r="BJ23" s="22"/>
+      <c r="BK23" s="24"/>
+      <c r="BL23" s="22"/>
+      <c r="BM23" s="24"/>
+      <c r="BN23" s="22"/>
+      <c r="BO23" s="27"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="75" customHeight="1" spans="2:67">
+      <c r="B24" s="2"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="22"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="22"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="22"/>
+      <c r="BM24" s="25"/>
+      <c r="BN24" s="22"/>
+      <c r="BO24" s="27"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="83" customHeight="1" spans="2:67">
+      <c r="B25" s="2"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="25"/>
+      <c r="BF25" s="22"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="22"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="22"/>
+      <c r="BO25" s="27"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="74" customHeight="1" spans="2:67">
+      <c r="B26" s="2"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="22"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="22"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="22"/>
+      <c r="BE26" s="25"/>
+      <c r="BF26" s="22"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="22"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="22"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="22"/>
+      <c r="BM26" s="25"/>
+      <c r="BN26" s="22"/>
+      <c r="BO26" s="27"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="75" customHeight="1" spans="2:67">
+      <c r="B27" s="2"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="25"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="25"/>
+      <c r="BB27" s="22"/>
+      <c r="BC27" s="25"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="25"/>
+      <c r="BF27" s="22"/>
+      <c r="BG27" s="25"/>
+      <c r="BH27" s="22"/>
+      <c r="BI27" s="25"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="25"/>
+      <c r="BL27" s="22"/>
+      <c r="BM27" s="25"/>
+      <c r="BN27" s="22"/>
+      <c r="BO27" s="27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="74" customHeight="1" spans="2:67">
+      <c r="B28" s="2"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="22"/>
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="22"/>
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="22"/>
+      <c r="BO28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="85" customHeight="1" spans="2:67">
+      <c r="B29" s="2"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="25"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="25"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="25"/>
+      <c r="BN29" s="22"/>
+      <c r="BO29" s="2"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="94" customHeight="1" spans="2:67">
+      <c r="B30" s="2"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="22"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="22"/>
+      <c r="BG30" s="25"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="25"/>
+      <c r="BJ30" s="22"/>
+      <c r="BK30" s="25"/>
+      <c r="BL30" s="22"/>
+      <c r="BM30" s="25"/>
+      <c r="BN30" s="22"/>
+      <c r="BO30" s="2"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="74" customHeight="1" spans="2:67">
+      <c r="B31" s="2"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="22"/>
+      <c r="BE31" s="25"/>
+      <c r="BF31" s="22"/>
+      <c r="BG31" s="25"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="25"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="25"/>
+      <c r="BL31" s="22"/>
+      <c r="BM31" s="25"/>
+      <c r="BN31" s="22"/>
+      <c r="BO31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="22.05" customHeight="1" spans="2:67">
+      <c r="B32" s="2"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="19"/>
+      <c r="BF32" s="19"/>
+      <c r="BG32" s="19"/>
+      <c r="BH32" s="19"/>
+      <c r="BI32" s="19"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="19"/>
+      <c r="BL32" s="19"/>
+      <c r="BM32" s="19"/>
+      <c r="BN32" s="19"/>
+      <c r="BO32" s="2"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="12:12">
+      <c r="L33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AI8:AI10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AM8:AM10"/>
+    <mergeCell ref="AO8:AO10"/>
+    <mergeCell ref="AQ8:AQ10"/>
+    <mergeCell ref="AS8:AS10"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="BC8:BC10"/>
+    <mergeCell ref="BE8:BE10"/>
+    <mergeCell ref="BG8:BG10"/>
+    <mergeCell ref="BI8:BI10"/>
+    <mergeCell ref="BK8:BK10"/>
+    <mergeCell ref="BM8:BM10"/>
+    <mergeCell ref="H3:J4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6:BO6">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>C6&lt;=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C10 E8:E10 G8:G10 I8:I10 K8:K10 M8:M10 O8:O10 Q8:Q10 S8:S10 U8:U10 W8:W10 Y8:Y10 AA8:AA10 AC8:AC10 AE8:AE10 AG8:AG10 AI8:AI10 AK8:AK10 AM8:AM10 AO8:AO10 AQ8:AQ10 AS8:AS10 AU8:AU10 AW8:AW10 AY8:AY10 BA8:BA10 BC8:BC10 BE8:BE10 BG8:BG10 BI8:BI10 BK8:BK10 BM8:BM10">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>C8&lt;=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9 T9 V9 X9 Z9 AB9 AD9 AF9 AH9 AJ9 AL9 AN9 AP9 AR9 AT9 AV9 AX9 AZ9 BB9 BD9 BF9 BH9 BJ9 BL9 BN9">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>C8&lt;=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13 F12:F13 H12:H13 J12:J13 L12:L13 N12:N13 P12:P13 R12:R13 T12:T13 V12:V13 X12:X13 Z12:Z13 AB12:AB13 AD12:AD13 AF12:AF13 AH12:AH13 AJ12:AJ13 AL12:AL13 AN12:AN13 AP12:AP13 AR12:AR13 AT12:AT13 AV12:AV13 AX12:AX13 AZ12:AZ13 BB12:BB13 BD12:BD13 BF12:BF13 BH12:BH13 BJ12:BJ13 BL12:BL13 BN12:BN13">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF000000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8a01ea04-63b5-4a49-9df8-deadb728c48c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF34B189"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7cf9f3d1-ef06-40fd-bdd0-1476eb74c91b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO7 BO8 BO9 BO10 C15 M15 O15 Q15 S15 U15 W15 Y15 AA15 AC15 AE15 AG15 AI15 AK15 AM15 AO15 AQ15 AS15 AU15 AW15 AY15 BA15 BC15 BE15 BG15 BI15 BK15 BM15 BO15 C16 M16 O16 Q16 S16 U16 W16 Y16 AA16 AC16 AE16 AG16 AI16 AK16 AM16 AO16 AQ16 AS16 AU16 AW16 AY16 BA16 BC16 BE16 BG16 BI16 BK16 BM16 BO16 M17 O17 Q17 S17 U17 W17 Y17 AA17 AC17 AE17 AG17 AI17 AK17 AM17 AO17 AQ17 AS17 AU17 AW17 AY17 BA17 BC17 BE17 BG17 BI17 BK17 BM17 BO17 M18 O18 Q18 S18 U18 W18 Y18 AA18 AC18 AE18 AG18 AI18 AK18 AM18 AO18 AQ18 AS18 AU18 AW18 AY18 BA18 BC18 BE18 BG18 BI18 BK18 BM18 BO18 I19 M19 O19 Q19 S19 U19 W19 Y19 AA19 AC19 AE19 AG19 AI19 AK19 AM19 AO19 AQ19 AS19 AU19 AW19 AY19 BA19 BC19 BE19 BG19 BI19 BK19 BM19 BO19 I20 M20 O20 Q20 S20 U20 W20 Y20 AA20 AC20 AE20 AG20 AI20 AK20 AM20 AO20 AQ20 AS20 AU20 AW20 AY20 BA20 BC20 BE20 BG20 BI20 BK20 BM20 BO20 C21 E21 I21 K21 M21 O21 Q21 S21 U21 W21 Y21 AA21 AC21 AE21 AG21 AI21 AK21 AM21 AO21 AQ21 AS21 AU21 AW21 AY21 BA21 BC21 BE21 BG21 BI21 BK21 BM21 BO21 C22 E22 G22 I22 K22 M22 O22 Q22 S22 U22 W22 Y22 AA22 AC22 AE22 AG22 AI22 AK22 AM22 AO22 AQ22 AS22 AU22 AW22 AY22 BA22 BC22 BE22 BG22 BI22 BK22 BM22 BO22 E23 G23 I23 K23 M23 O23 Q23 S23 U23 W23 Y23 AA23 AC23 AE23 AG23 AI23 AK23 AM23 AO23 AQ23 AS23 AU23 AW23 AY23 BA23 BC23 BE23 BG23 BI23 BK23 BM23 BO23 E24 G24 I24 K24 M24 O24 Q24 S24 U24 W24 Y24 AA24 AC24 AE24 AG24 AI24 AK24 AM24 AO24 AQ24 AS24 AU24 AW24 AY24 BA24 BC24 BE24 BG24 BI24 BK24 BM24 BO24 C25 E25 G25 I25 K25 M25 O25 Q25 S25 U25 W25 Y25 AA25 AC25 AE25 AG25 AI25 AK25 AM25 AO25 AQ25 AS25 AU25 AW25 AY25 BA25 BC25 BE25 BG25 BI25 BK25 BM25 BO25 C26 E26 G26 I26 K26 M26 O26 Q26 S26 U26 W26 Y26 AA26 AC26 AE26 AG26 AI26 AK26 AM26 AO26 AQ26 AS26 AU26 AW26 AY26 BA26 BC26 BE26 BG26 BI26 BK26 BM26 BO26 C27 E27 G27 I27 K27 M27 O27 Q27 S27 U27 W27 Y27 AA27 AC27 AE27 AG27 AI27 AK27 AM27 AO27 AQ27 AS27 AU27 AW27 AY27 BA27 BC27 BE27 BG27 BI27 BK27 BM27 BO27 C28 E28 G28 I28 K28 M28 O28 Q28 S28 U28 W28 Y28 AA28 AC28 AE28 AG28 AI28 AK28 AM28 AO28 AQ28 AS28 AU28 AW28 AY28 BA28 BC28 BE28 BG28 BI28 BK28 BM28 C29 E29 G29 I29 K29 M29 O29 Q29 S29 U29 W29 Y29 AA29 AC29 AE29 AG29 AI29 AK29 AM29 AO29 AQ29 AS29 AU29 AW29 AY29 BA29 BC29 BE29 BG29 BI29 BK29 BM29 C30 E30 G30 I30 K30 M30 O30 Q30 S30 U30 W30 Y30 AA30 AC30 AE30 AG30 AI30 AK30 AM30 AO30 AQ30 AS30 AU30 AW30 AY30 BA30 BC30 BE30 BG30 BI30 BK30 BM30 C31 E31 G31 I31 K31 M31 O31 Q31 S31 U31 W31 Y31 AA31 AC31 AE31 AG31 AI31 AK31 AM31 AO31 AQ31 AS31 AU31 AW31 AY31 BA31 BC31 BE31 BG31 BI31 BK31 BM31 C17:C18 C19:C20 C23:C24 E15:E18 E19:E20 G15:G16 G17:G19 G20:G21 I15:I18 K15:K16 K17:K20">
+      <formula1>"□,☑"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8a01ea04-63b5-4a49-9df8-deadb728c48c}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7cf9f3d1-ef06-40fd-bdd0-1476eb74c91b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/___/table/technology-study-plan/Item/git仓库/参与开源作品.xlsx
+++ b/___/table/technology-study-plan/Item/git仓库/参与开源作品.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="13">
   <si>
     <t>冬寒难练，非搏可成。但若消极，必不可行。</t>
   </si>
@@ -37,6 +37,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">https://github.com/hug-sun/element3/issues/654
 </t>
     </r>
@@ -60,6 +68,9 @@
     <t>梳理DatePicker Component思维导图</t>
   </si>
   <si>
+    <t>初始化自己的项目仓库</t>
+  </si>
+  <si>
     <t>熟悉之前的代码</t>
   </si>
   <si>
@@ -75,13 +86,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="ddd"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mmm\ dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="ddd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="mmm\ dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -185,6 +196,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,7 +210,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -201,6 +219,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,22 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -254,29 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,8 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,11 +316,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,19 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +425,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,25 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,55 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,8 +556,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,21 +582,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,17 +604,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,94 +655,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,52 +751,52 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -795,13 +806,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -843,7 +854,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,7 +869,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4506,7 +4517,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63cd0589-d753-4a82-8280-86b2318df8a7}</x14:id>
+          <x14:id>{0d7740be-bbc6-49c9-a248-5fcbc5b6d0a1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4518,7 +4529,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9d534fa5-a750-44ba-9d34-4bdfaf37e16e}</x14:id>
+          <x14:id>{bd2d603c-e445-4d93-ad8f-fb12e58cc4a4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4535,7 +4546,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63cd0589-d753-4a82-8280-86b2318df8a7}">
+          <x14:cfRule type="dataBar" id="{0d7740be-bbc6-49c9-a248-5fcbc5b6d0a1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4546,7 +4557,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9d534fa5-a750-44ba-9d34-4bdfaf37e16e}">
+          <x14:cfRule type="dataBar" id="{bd2d603c-e445-4d93-ad8f-fb12e58cc4a4}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4629,7 +4640,7 @@
   <dimension ref="B1:BO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="12.8"/>
@@ -5597,7 +5608,7 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>2</v>
@@ -6084,9 +6095,11 @@
         <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="10" t="s">
         <v>5</v>
       </c>
@@ -6215,7 +6228,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
@@ -6287,7 +6300,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
@@ -6359,7 +6372,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="18"/>
@@ -7473,7 +7486,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8a01ea04-63b5-4a49-9df8-deadb728c48c}</x14:id>
+          <x14:id>{4655ec5a-14cf-4c23-af53-7d867c8523f2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7485,7 +7498,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7cf9f3d1-ef06-40fd-bdd0-1476eb74c91b}</x14:id>
+          <x14:id>{c9cb8e8f-3103-4457-b43c-97f55d4b13e6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7502,7 +7515,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8a01ea04-63b5-4a49-9df8-deadb728c48c}">
+          <x14:cfRule type="dataBar" id="{4655ec5a-14cf-4c23-af53-7d867c8523f2}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7513,7 +7526,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7cf9f3d1-ef06-40fd-bdd0-1476eb74c91b}">
+          <x14:cfRule type="dataBar" id="{c9cb8e8f-3103-4457-b43c-97f55d4b13e6}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/___/table/technology-study-plan/Item/git仓库/参与开源作品.xlsx
+++ b/___/table/technology-study-plan/Item/git仓库/参与开源作品.xlsx
@@ -86,13 +86,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="mmm\ dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="mmm\ dd"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="ddd"/>
+    <numFmt numFmtId="177" formatCode="ddd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -211,9 +211,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,10 +224,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,14 +245,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,7 +266,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,31 +286,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,11 +317,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,7 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,13 +431,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,19 +491,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,109 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +558,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,15 +621,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,21 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -655,76 +655,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -733,16 +733,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,46 +751,46 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,13 +806,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -854,7 +854,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4517,7 +4517,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d7740be-bbc6-49c9-a248-5fcbc5b6d0a1}</x14:id>
+          <x14:id>{030804bf-01f2-45d3-b857-b15220ced000}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4529,7 +4529,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bd2d603c-e445-4d93-ad8f-fb12e58cc4a4}</x14:id>
+          <x14:id>{fef2741a-bdf3-4c49-b015-a05772a447b0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4546,7 +4546,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0d7740be-bbc6-49c9-a248-5fcbc5b6d0a1}">
+          <x14:cfRule type="dataBar" id="{030804bf-01f2-45d3-b857-b15220ced000}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4557,7 +4557,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bd2d603c-e445-4d93-ad8f-fb12e58cc4a4}">
+          <x14:cfRule type="dataBar" id="{fef2741a-bdf3-4c49-b015-a05772a447b0}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4640,7 +4640,7 @@
   <dimension ref="B1:BO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="12.8"/>
@@ -7486,7 +7486,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4655ec5a-14cf-4c23-af53-7d867c8523f2}</x14:id>
+          <x14:id>{69febcee-b77d-4390-852c-d560fc80b4a1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7498,7 +7498,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c9cb8e8f-3103-4457-b43c-97f55d4b13e6}</x14:id>
+          <x14:id>{2a0ffa01-becc-409f-912f-4f7d158e037e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7515,7 +7515,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4655ec5a-14cf-4c23-af53-7d867c8523f2}">
+          <x14:cfRule type="dataBar" id="{69febcee-b77d-4390-852c-d560fc80b4a1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7526,7 +7526,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c9cb8e8f-3103-4457-b43c-97f55d4b13e6}">
+          <x14:cfRule type="dataBar" id="{2a0ffa01-becc-409f-912f-4f7d158e037e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
